--- a/data/trans_bre/P8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,27 +636,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>243,43%</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,67%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-61,79%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-76,32%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 23,38</t>
+          <t>-15,82; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 0,0</t>
+          <t>-17,23; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 2,7</t>
+          <t>0,0; 10,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 1,62</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,06; 0,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-82,05%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-74,43%</t>
+          <t>-50,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-76,44%</t>
+          <t>-40,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-50,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-24,79%</t>
         </is>
       </c>
     </row>
@@ -768,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -2,88</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -0,19</t>
+          <t>-10,88; 3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -0,25</t>
+          <t>-12,72; 5,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -0,73</t>
+          <t>-15,11; 5,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,04; 6,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +844,22 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-89,48%</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-88,63%</t>
+          <t>-88,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-78,51%</t>
+          <t>-88,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-80,59%</t>
+          <t>-78,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-80,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-83,14%</t>
         </is>
       </c>
     </row>
@@ -868,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,45; -1,31</t>
+          <t>-16,9; -0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -1,14</t>
+          <t>-16,5; -0,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -0,9</t>
+          <t>-17,44; -0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; -1,15</t>
+          <t>-19,67; -1,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,63; -1,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +964,22 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 5,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 47,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,74%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,22%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-32,88%</t>
+          <t>-25,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,08%</t>
+          <t>-22,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-19,82%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 3,14</t>
+          <t>-6,13; 7,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 1,12</t>
+          <t>-9,36; 5,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 2,13</t>
+          <t>-9,32; 5,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 1,69</t>
+          <t>-9,14; 5,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,48; 85,18</t>
+          <t>-9,2; 8,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,3; 28,25</t>
+          <t>-75,06; 397,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,58; 45,5</t>
+          <t>-78,52; 153,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 42,08</t>
+          <t>-81,8; 145,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-80,89; 153,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-67,57; 209,35</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61,25%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>44,14%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 12,89</t>
+          <t>-11,73; 16,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 9,39</t>
+          <t>-17,63; 13,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 8,61</t>
+          <t>-18,76; 13,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 10,36</t>
+          <t>-12,13; 17,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 230,18</t>
+          <t>-11,04; 22,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-75,33; 180,94</t>
+          <t>-83,88; 802,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-73,72; 160,12</t>
+          <t>-100,0; 619,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 205,68</t>
+          <t>-99,99; 651,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-98,09; 915,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-56,07; 246,79</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>21,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>19,32</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>19,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>19,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>147,59%</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>132,63%</t>
+          <t>949,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>117,19%</t>
+          <t>821,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>888,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>738,48%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>359,15%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 22,31</t>
+          <t>9,88; 35,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 21,12</t>
+          <t>7,71; 33,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 18,9</t>
+          <t>7,99; 33,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 17,57</t>
+          <t>6,88; 33,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 664,65</t>
+          <t>3,27; 30,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 619,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 562,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 458,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-18,7%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,54</t>
+          <t>-3,8; 3,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,15</t>
+          <t>-4,92; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 1,4</t>
+          <t>-4,15; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,34</t>
+          <t>-3,49; 4,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 61,31</t>
+          <t>-4,42; 5,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-52,47; 20,38</t>
+          <t>-44,98; 103,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 23,84</t>
+          <t>-53,78; 73,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 22,98</t>
+          <t>-45,14; 93,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-40,23; 93,56</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-37,29; 82,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
